--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,62 +399,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>248</v>
+        <v>411</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>964</v>
+        <v>1490</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1324</v>
+        <v>1701</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1519</v>
+        <v>2991</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2055</v>
+        <v>2992</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2421</v>
+        <v>3477</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,32 +476,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2424</v>
+        <v>3495</v>
       </c>
       <c r="B9">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3024</v>
+        <v>6936</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4232</v>
+        <v>7084</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -509,43 +509,43 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5076</v>
+        <v>7704</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5452</v>
+        <v>11586</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5733</v>
+        <v>11685</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>5736</v>
+        <v>11931</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,29 +553,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7704</v>
+        <v>12239</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>189</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7706</v>
+        <v>21269</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>8599</v>
+        <v>23961</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -586,112 +586,24 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9082</v>
+        <v>24258</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>9507</v>
+        <v>24724</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>11625</v>
-      </c>
-      <c r="B21">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>11931</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>12373</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>13034</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>21793</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>24258</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>24722</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
         <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>24724</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,62 +399,62 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>166</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1490</v>
+        <v>964</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1701</v>
+        <v>2108</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2991</v>
+        <v>2109</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2992</v>
+        <v>2726</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3477</v>
+        <v>3982</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,117 +476,117 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3495</v>
+        <v>5736</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1092</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6936</v>
+        <v>7084</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7084</v>
+        <v>7703</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7704</v>
+        <v>7885</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>189</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>11586</v>
+        <v>8648</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>11685</v>
+        <v>10581</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11931</v>
+        <v>12239</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>12239</v>
+        <v>13033</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>21269</v>
+        <v>13036</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>23961</v>
+        <v>13401</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>24258</v>
+        <v>21269</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -597,13 +597,46 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>24724</v>
+        <v>21793</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>62</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>23611</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>23961</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>23992</v>
+      </c>
+      <c r="B23">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,65 +399,65 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>964</v>
+        <v>439</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2108</v>
+        <v>964</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2109</v>
+        <v>1124</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2726</v>
+        <v>1886</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -465,150 +465,150 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3982</v>
+        <v>2108</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5736</v>
+        <v>2423</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>7084</v>
+        <v>2703</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>140</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7703</v>
+        <v>2805</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="C11">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>7885</v>
+        <v>3430</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>150</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8648</v>
+        <v>3478</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>221</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>10581</v>
+        <v>5812</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>12239</v>
+        <v>5813</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>92</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>13033</v>
+        <v>7084</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>54</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>13036</v>
+        <v>7703</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>13401</v>
+        <v>7708</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>290</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>21269</v>
+        <v>7885</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>21793</v>
+        <v>7886</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>23611</v>
+        <v>8599</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -619,23 +619,232 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>23961</v>
+        <v>9068</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>23992</v>
+        <v>9122</v>
       </c>
       <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>9182</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>9288</v>
+      </c>
+      <c r="B25">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>10507</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>10580</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>10581</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>11081</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>11164</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>11891</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>11953</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>12239</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>12373</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>12587</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>13025</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>13250</v>
+      </c>
+      <c r="B37">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>13401</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>21269</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>21793</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>23660</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>23961</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,35 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5812</v>
+        <v>9507</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>9507</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>11836</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9507</v>
+        <v>161</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>336</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>345</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>218</v>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5811</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6935</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6936</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,68 +399,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>161</v>
+        <v>417</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>336</v>
+        <v>3477</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>345</v>
+        <v>11234</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5811</v>
+        <v>13030</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6935</v>
+        <v>25278</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6936</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>417</v>
+        <v>2050</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -421,35 +421,79 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>11234</v>
+        <v>6936</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>13030</v>
+        <v>11681</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
+        <v>11685</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>11837</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>13030</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>21793</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>25278</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>302</v>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2050</v>
+        <v>130</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>489</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3477</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -421,40 +421,40 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>6936</v>
+        <v>417</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>11681</v>
+        <v>435</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>11685</v>
+        <v>2424</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>11837</v>
+        <v>3477</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>13030</v>
+        <v>3889</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -476,24 +476,134 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>21793</v>
+        <v>3891</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>5733</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7705</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>8089</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>11234</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>11586</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>11835</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>11836</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11837</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>13033</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>21793</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>25278</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>301</v>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,29 +399,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>417</v>
+        <v>3477</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -432,177 +432,67 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>435</v>
+        <v>5729</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2424</v>
+        <v>5733</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3477</v>
+        <v>6158</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3889</v>
+        <v>8089</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3891</v>
+        <v>12526</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5733</v>
+        <v>25278</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>7705</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>8089</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11234</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>11586</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>11835</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>11836</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>11837</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>13033</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>21793</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>25278</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,100 +399,782 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>169</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>58</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3477</v>
+        <v>130</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5729</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>5733</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6158</v>
+        <v>247</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>288</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>8089</v>
+        <v>345</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>12526</v>
+        <v>566</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>297</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>615</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>823</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1007</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1414</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1432</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1548</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1668</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1691</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2057</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2331</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2436</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2859</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2912</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2991</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>3442</v>
+      </c>
+      <c r="B24">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>3477</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>3671</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>4222</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>5111</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>5165</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>5577</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>5585</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>5729</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>5733</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>5736</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>6097</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>6158</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>6935</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>7558</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>7885</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>7887</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>8089</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>8356</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8649</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>8673</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>8674</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>8675</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>8676</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>8926</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>9507</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>9877</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>10170</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>10574</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>10710</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>11180</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>11212</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>11234</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>11690</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>11767</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>11773</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>11844</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>11885</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>11886</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>12526</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>12721</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>12764</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>12791</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>12923</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>12924</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>23380</v>
+      </c>
+      <c r="B69">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>23961</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>24566</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
         <v>25278</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1247</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,56 +427,56 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>168</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>566</v>
+        <v>435</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -487,145 +487,145 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>615</v>
+        <v>440</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>823</v>
+        <v>589</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1414</v>
+        <v>738</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1432</v>
+        <v>947</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1548</v>
+        <v>1124</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1668</v>
+        <v>1134</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1691</v>
+        <v>1429</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>102</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2331</v>
+        <v>2055</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>132</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2436</v>
+        <v>2331</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2859</v>
+        <v>2423</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2912</v>
+        <v>2424</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -633,125 +633,125 @@
         <v>2991</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3442</v>
+        <v>3392</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3477</v>
+        <v>3495</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3671</v>
+        <v>3893</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4222</v>
+        <v>3894</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5111</v>
+        <v>4222</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5165</v>
+        <v>5111</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5577</v>
+        <v>5243</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>232</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5585</v>
+        <v>5540</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5729</v>
+        <v>5541</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5733</v>
+        <v>5585</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5736</v>
+        <v>5729</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -762,186 +762,186 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>6097</v>
+        <v>6158</v>
       </c>
       <c r="B35">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>6158</v>
+        <v>6575</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6935</v>
+        <v>6627</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>7558</v>
+        <v>6936</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7885</v>
+        <v>8155</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>7887</v>
+        <v>8356</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>153</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8089</v>
+        <v>8648</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8356</v>
+        <v>8649</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8649</v>
+        <v>8675</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43">
-        <v>7</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8673</v>
+        <v>8915</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44">
-        <v>312</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8674</v>
+        <v>8939</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>316</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>8675</v>
+        <v>9530</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>316</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8676</v>
+        <v>10148</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>8926</v>
+        <v>10149</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>69</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>9507</v>
+        <v>10406</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>219</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>9877</v>
+        <v>10527</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>994</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>10170</v>
+        <v>10717</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -949,18 +949,18 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>10574</v>
+        <v>11090</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>573</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>10710</v>
+        <v>11093</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -971,211 +971,255 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11180</v>
+        <v>11151</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11212</v>
+        <v>11412</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C55">
-        <v>266</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11234</v>
+        <v>11427</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>195</v>
+        <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11690</v>
+        <v>11585</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C57">
-        <v>334</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11767</v>
+        <v>11681</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>178</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11773</v>
+        <v>11689</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>138</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11844</v>
+        <v>11738</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>293</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11885</v>
+        <v>11739</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>218</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11886</v>
+        <v>11920</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12526</v>
+        <v>12010</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>297</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12721</v>
+        <v>12040</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12764</v>
+        <v>12304</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12791</v>
+        <v>12536</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12923</v>
+        <v>12656</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12924</v>
+        <v>12764</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>59</v>
+        <v>822</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>23380</v>
+        <v>12791</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>36</v>
+        <v>909</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>23961</v>
+        <v>13030</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>87</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>24566</v>
+        <v>13928</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>356</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>25278</v>
+        <v>19685</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>19687</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>23611</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>24566</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>24567</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1126.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,46 +399,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>132</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,34 +449,34 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>801</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>418</v>
+        <v>361</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -487,464 +487,464 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>232</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>589</v>
+        <v>523</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>139</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>248</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>738</v>
+        <v>589</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>947</v>
+        <v>615</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1124</v>
+        <v>624</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>203</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1134</v>
+        <v>738</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1429</v>
+        <v>788</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2054</v>
+        <v>949</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>518</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2055</v>
+        <v>1309</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>517</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2331</v>
+        <v>1413</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C20">
-        <v>79</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2423</v>
+        <v>1414</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>208</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2424</v>
+        <v>1656</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2991</v>
+        <v>1668</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3392</v>
+        <v>2049</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>52</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3495</v>
+        <v>2436</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>1166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3893</v>
+        <v>2438</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3894</v>
+        <v>2991</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4222</v>
+        <v>3495</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>5111</v>
+        <v>3671</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5243</v>
+        <v>3673</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>5540</v>
+        <v>3894</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>195</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>5541</v>
+        <v>5111</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5585</v>
+        <v>5453</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>279</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>5729</v>
+        <v>5490</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>6158</v>
+        <v>5577</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>294</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>6575</v>
+        <v>5584</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>311</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6627</v>
+        <v>5585</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>6936</v>
+        <v>5722</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8155</v>
+        <v>5733</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>8356</v>
+        <v>6098</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8648</v>
+        <v>6158</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
-        <v>221</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8649</v>
+        <v>6494</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>203</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8675</v>
+        <v>6575</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>8915</v>
+        <v>7004</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>177</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8939</v>
+        <v>8356</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>173</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>9530</v>
+        <v>8649</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>10148</v>
+        <v>8853</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>123</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>10149</v>
+        <v>9081</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>1077</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>10406</v>
+        <v>10148</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>10527</v>
+        <v>10514</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>994</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>10717</v>
+        <v>10716</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -966,103 +966,103 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>11151</v>
+        <v>11212</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>170</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>11412</v>
+        <v>11234</v>
       </c>
       <c r="B55">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>11427</v>
+        <v>11454</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>562</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>11585</v>
+        <v>11681</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>11681</v>
+        <v>11684</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11689</v>
+        <v>11767</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>347</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11738</v>
+        <v>11773</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11739</v>
+        <v>11836</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11920</v>
+        <v>11837</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -1070,54 +1070,54 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>12010</v>
+        <v>11838</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12040</v>
+        <v>11856</v>
       </c>
       <c r="B64">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12304</v>
+        <v>11858</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12536</v>
+        <v>11885</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12656</v>
+        <v>11886</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -1125,32 +1125,32 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12764</v>
+        <v>11920</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>822</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>12791</v>
+        <v>12010</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>909</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>13030</v>
+        <v>12040</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>7</v>
@@ -1158,32 +1158,32 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>13928</v>
+        <v>12353</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>19685</v>
+        <v>12791</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>39</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>19687</v>
+        <v>13030</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>23611</v>
+        <v>19687</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>7</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>24566</v>
+        <v>20650</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1213,13 +1213,90 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
+        <v>20927</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>21068</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>22361</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>24257</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>24258</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>24566</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
         <v>24567</v>
       </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76">
-        <v>372</v>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>25278</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
